--- a/individual_results/avey/423.xlsx
+++ b/individual_results/avey/423.xlsx
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C2" t="n">
         <v>0.3333333333333333</v>
@@ -625,7 +625,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C3" t="n">
         <v>0.3333333333333333</v>
@@ -698,7 +698,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C4" t="n">
         <v>0.3333333333333333</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C5" t="n">
         <v>0.3333333333333333</v>
@@ -832,7 +832,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9467676761267002</v>
+        <v>0.2015151419005024</v>
       </c>
       <c r="C6" t="n">
         <v>0.319393943239799</v>
@@ -905,7 +905,7 @@
         </is>
       </c>
       <c r="B7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="b">
         <v>0</v>
@@ -978,7 +978,7 @@
         </is>
       </c>
       <c r="B8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="b">
         <v>0</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="b">
         <v>0</v>
@@ -1123,9 +1123,7 @@
           <t>position</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>1</v>
-      </c>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
         <v>2</v>
